--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H2">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N2">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O2">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P2">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q2">
-        <v>0.5472600852180001</v>
+        <v>1.1329562788635</v>
       </c>
       <c r="R2">
-        <v>2.189040340872</v>
+        <v>4.531825115454001</v>
       </c>
       <c r="S2">
-        <v>0.0001639585122330123</v>
+        <v>7.269558855951843E-05</v>
       </c>
       <c r="T2">
-        <v>8.051340606726989E-05</v>
+        <v>3.528424762681409E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H3">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I3">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J3">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.043359</v>
       </c>
       <c r="O3">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P3">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q3">
-        <v>3.128516830508667</v>
+        <v>3.528902890574833</v>
       </c>
       <c r="R3">
-        <v>18.771100983052</v>
+        <v>21.173417343449</v>
       </c>
       <c r="S3">
-        <v>0.0009373001592502557</v>
+        <v>0.0002264303375034573</v>
       </c>
       <c r="T3">
-        <v>0.0006904054016547548</v>
+        <v>0.0001648536917509207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H4">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I4">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J4">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N4">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O4">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P4">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q4">
-        <v>186.753131517744</v>
+        <v>298.5931096982085</v>
       </c>
       <c r="R4">
-        <v>1120.518789106464</v>
+        <v>1791.558658189251</v>
       </c>
       <c r="S4">
-        <v>0.05595103027897248</v>
+        <v>0.01915908164708916</v>
       </c>
       <c r="T4">
-        <v>0.04121293819436722</v>
+        <v>0.01394886115925935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H5">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I5">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J5">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N5">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O5">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P5">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q5">
-        <v>21.961405000722</v>
+        <v>5.8672700470755</v>
       </c>
       <c r="R5">
-        <v>87.845620002888</v>
+        <v>23.469080188302</v>
       </c>
       <c r="S5">
-        <v>0.006579612487233853</v>
+        <v>0.0003764705287106451</v>
       </c>
       <c r="T5">
-        <v>0.003230982062078486</v>
+        <v>0.0001827274477370573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H6">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I6">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J6">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N6">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O6">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P6">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q6">
-        <v>1.621042597379333</v>
+        <v>1970.135629284039</v>
       </c>
       <c r="R6">
-        <v>9.726255584275998</v>
+        <v>11820.81377570424</v>
       </c>
       <c r="S6">
-        <v>0.0004856625573684566</v>
+        <v>0.1264127943723906</v>
       </c>
       <c r="T6">
-        <v>0.0003577339123220181</v>
+        <v>0.09203544042114239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H7">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I7">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J7">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N7">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O7">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P7">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q7">
-        <v>243.5905071155307</v>
+        <v>83.42441511055286</v>
       </c>
       <c r="R7">
-        <v>1461.543042693184</v>
+        <v>500.5464906633171</v>
       </c>
       <c r="S7">
-        <v>0.07297944472752455</v>
+        <v>0.005352887017651536</v>
       </c>
       <c r="T7">
-        <v>0.05375588849782201</v>
+        <v>0.003897195031880205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J8">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N8">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O8">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P8">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q8">
-        <v>0.545518788325</v>
+        <v>1.001216222825</v>
       </c>
       <c r="R8">
-        <v>3.27311272995</v>
+        <v>6.007297336950001</v>
       </c>
       <c r="S8">
-        <v>0.0001634368216225624</v>
+        <v>6.424255194261599E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001203858373050531</v>
+        <v>4.677209764384521E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J9">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.043359</v>
       </c>
       <c r="O9">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P9">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q9">
         <v>3.118562374147222</v>
@@ -1013,10 +1013,10 @@
         <v>28.067061367325</v>
       </c>
       <c r="S9">
-        <v>0.0009343178152072755</v>
+        <v>0.0002001010378578918</v>
       </c>
       <c r="T9">
-        <v>0.001032312957778678</v>
+        <v>0.0002185267785521046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J10">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N10">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O10">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P10">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q10">
-        <v>186.1589119566</v>
+        <v>263.872729275575</v>
       </c>
       <c r="R10">
-        <v>1675.4302076094</v>
+        <v>2374.854563480175</v>
       </c>
       <c r="S10">
-        <v>0.05577300276003492</v>
+        <v>0.01693126532538111</v>
       </c>
       <c r="T10">
-        <v>0.06162270750519422</v>
+        <v>0.01849033322352938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J11">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N11">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O11">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P11">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q11">
-        <v>21.891527208925</v>
+        <v>5.185024404225</v>
       </c>
       <c r="R11">
-        <v>131.34916325355</v>
+        <v>31.11014642535</v>
       </c>
       <c r="S11">
-        <v>0.006558677178610714</v>
+        <v>0.0003326945688837261</v>
       </c>
       <c r="T11">
-        <v>0.004831052365812736</v>
+        <v>0.0002422198743802422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J12">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N12">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O12">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P12">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q12">
-        <v>1.615884690719444</v>
+        <v>1741.04843232205</v>
       </c>
       <c r="R12">
-        <v>14.542962216475</v>
+        <v>15669.43589089845</v>
       </c>
       <c r="S12">
-        <v>0.0004841172542757686</v>
+        <v>0.1117135258081104</v>
       </c>
       <c r="T12">
-        <v>0.0005348934875679757</v>
+        <v>0.1220003513069283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J13">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N13">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O13">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P13">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q13">
-        <v>242.8154398218223</v>
+        <v>73.72383148991391</v>
       </c>
       <c r="R13">
-        <v>2185.3389583964</v>
+        <v>663.5144834092251</v>
       </c>
       <c r="S13">
-        <v>0.07274723542925958</v>
+        <v>0.004730453788029852</v>
       </c>
       <c r="T13">
-        <v>0.08037726837044264</v>
+        <v>0.005166044306686212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H14">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I14">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J14">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N14">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O14">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P14">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q14">
-        <v>1.090619119485</v>
+        <v>1.938727139804</v>
       </c>
       <c r="R14">
-        <v>6.54371471691</v>
+        <v>11.632362838824</v>
       </c>
       <c r="S14">
-        <v>0.0003267482739443848</v>
+        <v>0.0001243974839220991</v>
       </c>
       <c r="T14">
-        <v>0.0002406793289067813</v>
+        <v>9.05681839950918E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H15">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I15">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J15">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.043359</v>
       </c>
       <c r="O15">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P15">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q15">
-        <v>6.234732557965</v>
+        <v>6.038697110671555</v>
       </c>
       <c r="R15">
-        <v>56.11259302168499</v>
+        <v>54.34827399604399</v>
       </c>
       <c r="S15">
-        <v>0.001867918932855222</v>
+        <v>0.0003874700628635835</v>
       </c>
       <c r="T15">
-        <v>0.002063834047773973</v>
+        <v>0.0004231491526950168</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H16">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I16">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J16">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N16">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O16">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P16">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q16">
-        <v>372.17502492588</v>
+        <v>510.955785611684</v>
       </c>
       <c r="R16">
-        <v>3349.57522433292</v>
+        <v>4598.602070505156</v>
       </c>
       <c r="S16">
-        <v>0.1115032231024557</v>
+        <v>0.03278522945315497</v>
       </c>
       <c r="T16">
-        <v>0.1231981453946866</v>
+        <v>0.03580416500177077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H17">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I17">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J17">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N17">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O17">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P17">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q17">
-        <v>43.766261840565</v>
+        <v>10.040136489852</v>
       </c>
       <c r="R17">
-        <v>262.59757104339</v>
+        <v>60.240818939112</v>
       </c>
       <c r="S17">
-        <v>0.01311232331976305</v>
+        <v>0.0006442204743150768</v>
       </c>
       <c r="T17">
-        <v>0.00965839892254936</v>
+        <v>0.0004690278019426089</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H18">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I18">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J18">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N18">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O18">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P18">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q18">
-        <v>3.230529866795</v>
+        <v>3371.317574072055</v>
       </c>
       <c r="R18">
-        <v>29.074768801155</v>
+        <v>30341.8581666485</v>
       </c>
       <c r="S18">
-        <v>0.0009678631513442558</v>
+        <v>0.2163189523200863</v>
       </c>
       <c r="T18">
-        <v>0.001069376668438593</v>
+        <v>0.2362380740066234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H19">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I19">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J19">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N19">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O19">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P19">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q19">
-        <v>485.4446205032801</v>
+        <v>142.7567689190502</v>
       </c>
       <c r="R19">
-        <v>4369.00158452952</v>
+        <v>1284.810920271452</v>
       </c>
       <c r="S19">
-        <v>0.1454386678274397</v>
+        <v>0.009159918640316615</v>
       </c>
       <c r="T19">
-        <v>0.1606928808555655</v>
+        <v>0.01000338395890444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H20">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I20">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J20">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N20">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O20">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P20">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q20">
-        <v>0.4088578874205</v>
+        <v>0.7371518096670001</v>
       </c>
       <c r="R20">
-        <v>1.635431549682</v>
+        <v>2.948607238668</v>
       </c>
       <c r="S20">
-        <v>0.0001224933678645576</v>
+        <v>4.729898731415476E-05</v>
       </c>
       <c r="T20">
-        <v>6.015154768793304E-05</v>
+        <v>2.295750284109441E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H21">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I21">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J21">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.043359</v>
       </c>
       <c r="O21">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P21">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q21">
-        <v>2.337314225231166</v>
+        <v>2.296061375409667</v>
       </c>
       <c r="R21">
-        <v>14.023885351387</v>
+        <v>13.776368252458</v>
       </c>
       <c r="S21">
-        <v>0.0007002567396036234</v>
+        <v>0.0001473256613411584</v>
       </c>
       <c r="T21">
-        <v>0.0005158017213548838</v>
+        <v>0.0001072611533839411</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H22">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I22">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J22">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N22">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O22">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P22">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q22">
-        <v>139.523222840364</v>
+        <v>194.277974600157</v>
       </c>
       <c r="R22">
-        <v>837.1393370421839</v>
+        <v>1165.667847600942</v>
       </c>
       <c r="S22">
-        <v>0.04180100222319064</v>
+        <v>0.01246575174275649</v>
       </c>
       <c r="T22">
-        <v>0.03079017691894771</v>
+        <v>0.00907575026342265</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H23">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I23">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J23">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N23">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O23">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P23">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q23">
-        <v>16.4073607703445</v>
+        <v>3.817507183371</v>
       </c>
       <c r="R23">
-        <v>65.629443081378</v>
+        <v>15.270028733484</v>
       </c>
       <c r="S23">
-        <v>0.004915627019471678</v>
+        <v>0.0002449484915726212</v>
       </c>
       <c r="T23">
-        <v>0.0024138659768485</v>
+        <v>0.000118890615011484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H24">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I24">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J24">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N24">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O24">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P24">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q24">
-        <v>1.211080562396833</v>
+        <v>1281.857977673238</v>
       </c>
       <c r="R24">
-        <v>7.266483374380998</v>
+        <v>7691.147866039429</v>
       </c>
       <c r="S24">
-        <v>0.0003628383881236392</v>
+        <v>0.08224979363735638</v>
       </c>
       <c r="T24">
-        <v>0.0002672629259858909</v>
+        <v>0.05988235620883868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H25">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I25">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J25">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N25">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O25">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P25">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q25">
-        <v>181.9864134532507</v>
+        <v>54.27963966168569</v>
       </c>
       <c r="R25">
-        <v>1091.918480719504</v>
+        <v>325.6778379701141</v>
       </c>
       <c r="S25">
-        <v>0.05452292685393058</v>
+        <v>0.003482826677092123</v>
       </c>
       <c r="T25">
-        <v>0.04016101228883952</v>
+        <v>0.002535688643923263</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H26">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I26">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J26">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N26">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O26">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P26">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q26">
-        <v>0.352652276417</v>
+        <v>0.6020469885430001</v>
       </c>
       <c r="R26">
-        <v>2.115913658502</v>
+        <v>3.612281931258001</v>
       </c>
       <c r="S26">
-        <v>0.0001056542293850714</v>
+        <v>3.863005218217431E-05</v>
       </c>
       <c r="T26">
-        <v>7.7823789908957E-05</v>
+        <v>2.812479451727582E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H27">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I27">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J27">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.043359</v>
       </c>
       <c r="O27">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P27">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q27">
-        <v>2.016004111917444</v>
+        <v>1.875240375791445</v>
       </c>
       <c r="R27">
-        <v>18.144037007257</v>
+        <v>16.877163382123</v>
       </c>
       <c r="S27">
-        <v>0.0006039925873891368</v>
+        <v>0.0001203238865894098</v>
       </c>
       <c r="T27">
-        <v>0.0006673418447295187</v>
+        <v>0.0001314035729186275</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H28">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I28">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J28">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N28">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O28">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P28">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q28">
-        <v>120.342993645336</v>
+        <v>158.670802966753</v>
       </c>
       <c r="R28">
-        <v>1083.086942808024</v>
+        <v>1428.037226700777</v>
       </c>
       <c r="S28">
-        <v>0.03605462691088869</v>
+        <v>0.01018103489434759</v>
       </c>
       <c r="T28">
-        <v>0.03983618629783826</v>
+        <v>0.01111852682827353</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H29">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I29">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J29">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N29">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O29">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P29">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q29">
-        <v>14.151844207193</v>
+        <v>3.117836344359</v>
       </c>
       <c r="R29">
-        <v>84.91106524315799</v>
+        <v>18.707018066154</v>
       </c>
       <c r="S29">
-        <v>0.004239876768356758</v>
+        <v>0.0002000544525096738</v>
       </c>
       <c r="T29">
-        <v>0.003123048464608709</v>
+        <v>0.0001456506023488369</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H30">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I30">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J30">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N30">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O30">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P30">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q30">
-        <v>1.044593562687889</v>
+        <v>1046.919677978702</v>
       </c>
       <c r="R30">
-        <v>9.401342064190999</v>
+        <v>9422.27710180832</v>
       </c>
       <c r="S30">
-        <v>0.0003129590683710525</v>
+        <v>0.06717509191223842</v>
       </c>
       <c r="T30">
-        <v>0.0003457835184937669</v>
+        <v>0.07336072112203719</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H31">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I31">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J31">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N31">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O31">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P31">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q31">
-        <v>156.9687780420604</v>
+        <v>44.3312940007288</v>
       </c>
       <c r="R31">
-        <v>1412.719002378544</v>
+        <v>398.9816460065591</v>
       </c>
       <c r="S31">
-        <v>0.04702767113840967</v>
+        <v>0.002844495916665731</v>
       </c>
       <c r="T31">
-        <v>0.05196012909115366</v>
+        <v>0.003106423314580839</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H32">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I32">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J32">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N32">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O32">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P32">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q32">
-        <v>1.046864459599</v>
+        <v>2.061210216429</v>
       </c>
       <c r="R32">
-        <v>6.281186757594</v>
+        <v>12.367261298574</v>
       </c>
       <c r="S32">
-        <v>0.0003136394265572923</v>
+        <v>0.0001322565509575604</v>
       </c>
       <c r="T32">
-        <v>0.0002310234903195395</v>
+        <v>9.629001539276824E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H33">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I33">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J33">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.043359</v>
       </c>
       <c r="O33">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P33">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q33">
-        <v>5.984600685453223</v>
+        <v>6.420204227241</v>
       </c>
       <c r="R33">
-        <v>53.861406169079</v>
+        <v>57.781838045169</v>
       </c>
       <c r="S33">
-        <v>0.001792979702337886</v>
+        <v>0.0004119492814319128</v>
       </c>
       <c r="T33">
-        <v>0.001981034878744058</v>
+        <v>0.0004498824711848933</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H34">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I34">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J34">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N34">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O34">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P34">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q34">
-        <v>357.243697074792</v>
+        <v>543.2364688270591</v>
       </c>
       <c r="R34">
-        <v>3215.193273673128</v>
+        <v>4889.128219443532</v>
       </c>
       <c r="S34">
-        <v>0.107029813902235</v>
+        <v>0.03485650379023624</v>
       </c>
       <c r="T34">
-        <v>0.1182555464121235</v>
+        <v>0.03806616680458733</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H35">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I35">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J35">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N35">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O35">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P35">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q35">
-        <v>42.010398710071</v>
+        <v>10.674442773477</v>
       </c>
       <c r="R35">
-        <v>252.062392260426</v>
+        <v>64.046656640862</v>
       </c>
       <c r="S35">
-        <v>0.01258626868077743</v>
+        <v>0.0006849204284751578</v>
       </c>
       <c r="T35">
-        <v>0.00927091262935196</v>
+        <v>0.000498659598509092</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H36">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I36">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J36">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N36">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O36">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P36">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q36">
-        <v>3.100923908997444</v>
+        <v>3584.307499407306</v>
       </c>
       <c r="R36">
-        <v>27.908315180977</v>
+        <v>32258.76749466576</v>
       </c>
       <c r="S36">
-        <v>0.0009290333506863897</v>
+        <v>0.2299853472802041</v>
       </c>
       <c r="T36">
-        <v>0.00102647423661652</v>
+        <v>0.2511629004694237</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H37">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I37">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J37">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N37">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O37">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P37">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q37">
-        <v>465.9690181741743</v>
+        <v>151.7757215644531</v>
       </c>
       <c r="R37">
-        <v>4193.721163567569</v>
+        <v>1365.981494080077</v>
       </c>
       <c r="S37">
-        <v>0.1396037990530251</v>
+        <v>0.00973861534995988</v>
       </c>
       <c r="T37">
-        <v>0.1542460267501131</v>
+        <v>0.01063536832575642</v>
       </c>
     </row>
   </sheetData>
